--- a/Cafiem/2017_2018/Ekonomi/lön_eller_utdelning/lön_utdelning.xlsx
+++ b/Cafiem/2017_2018/Ekonomi/lön_eller_utdelning/lön_utdelning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6888"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>brutton</t>
   </si>
@@ -33,7 +34,40 @@
     <t>utdelning  20 % skatt</t>
   </si>
   <si>
-    <t>Totalt</t>
+    <t>Per</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Cafiem</t>
+  </si>
+  <si>
+    <t>Cafiem: semester ersättning</t>
+  </si>
+  <si>
+    <t>Cafiem: betala nettolön</t>
+  </si>
+  <si>
+    <t>Cafiem: betal av skatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semestersättning 0,8 % </t>
+  </si>
+  <si>
+    <t>ISGR</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cafiem total</t>
+  </si>
+  <si>
+    <t>Cafiem: Arb. avgift 31,42 %</t>
   </si>
 </sst>
 </file>
@@ -57,12 +91,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,9 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,89 +429,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>50000</v>
       </c>
-      <c r="E3">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>16499</v>
-      </c>
-      <c r="E4">
-        <v>9704</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+        <v>15655</v>
+      </c>
+      <c r="D4">
+        <v>576</v>
+      </c>
+      <c r="F4">
+        <v>8731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3">
+        <f>C5+D5+F5</f>
+        <v>62038</v>
+      </c>
+      <c r="C5" s="2">
         <f>C3-C4</f>
-        <v>33501</v>
-      </c>
-      <c r="E5" s="1">
-        <f>E3-E4</f>
-        <v>27296</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+        <v>34345</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D3-D4</f>
+        <v>1424</v>
+      </c>
+      <c r="F5" s="2">
+        <f>F3-F4</f>
+        <v>26269</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>C4</f>
+        <v>15655</v>
+      </c>
+      <c r="D7">
+        <f>D4</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f>C5</f>
+        <v>34345</v>
+      </c>
+      <c r="D8">
+        <f>D5</f>
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f>C3*0.3142</f>
+        <v>15709.999999999998</v>
+      </c>
+      <c r="D9">
+        <f>D3*0.3142</f>
+        <v>628.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>850</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <f>C11+D11</f>
+        <v>69238.399999999994</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C7:C10)</f>
+        <v>66560</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D7:D10)</f>
+        <v>2678.4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="F20">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
-        <f>E7*0.8</f>
+      <c r="F21" s="1">
+        <f>F20*0.8</f>
         <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <f>C5</f>
-        <v>33501</v>
-      </c>
-      <c r="E10">
-        <f>E5+E8</f>
-        <v>35296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
